--- a/TEF/QuLL_TEF_Fund_v5.xlsx
+++ b/TEF/QuLL_TEF_Fund_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashap/Documents/Quantum/Quantum/TEF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD672B9-0038-264F-9CEA-CF43FB8110E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4600CD2E-6AC8-7E4C-A9A4-DF0019BF6127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="2160" windowWidth="29760" windowHeight="16680" xr2:uid="{EB2CBE15-7BB4-DD40-815F-8021B0A65FC3}"/>
+    <workbookView xWindow="23520" yWindow="820" windowWidth="25540" windowHeight="16680" xr2:uid="{EB2CBE15-7BB4-DD40-815F-8021B0A65FC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>TEF Funds UNM Subaward to CNM Ingenuity Budget Breakdown</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>TOTAL CNM + UNM</t>
+  </si>
+  <si>
+    <t>Other - Website</t>
+  </si>
+  <si>
+    <t>Other - NM Educator Stipend</t>
+  </si>
+  <si>
+    <t>Other - Annual QIS Workshop</t>
+  </si>
+  <si>
+    <t>Other - Student Tuition</t>
   </si>
 </sst>
 </file>
@@ -199,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -222,11 +234,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -258,6 +390,28 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCBC226-7DF0-DE4B-A584-7AB384523D3D}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G31" sqref="A19:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,9 +1139,296 @@
       </c>
       <c r="H16" s="8"/>
     </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
+        <v>78708</v>
+      </c>
+      <c r="D22" s="6">
+        <f>C22*1.02</f>
+        <v>80282.16</v>
+      </c>
+      <c r="E22" s="6">
+        <f>D22*1.02</f>
+        <v>81887.803200000009</v>
+      </c>
+      <c r="F22" s="6">
+        <f>E22*1.02</f>
+        <v>83525.55926400001</v>
+      </c>
+      <c r="G22" s="27">
+        <f t="shared" ref="G22:G30" si="3">SUM(B22:F22)</f>
+        <v>324403.52246400004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <f>C22*0.34</f>
+        <v>26760.720000000001</v>
+      </c>
+      <c r="D23" s="6">
+        <f>D22*0.34</f>
+        <v>27295.934400000002</v>
+      </c>
+      <c r="E23" s="6">
+        <f>E22*0.34</f>
+        <v>27841.853088000003</v>
+      </c>
+      <c r="F23" s="6">
+        <f>F22*0.34</f>
+        <v>28398.690149760005</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="3"/>
+        <v>110297.19763776001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6">
+        <v>35000</v>
+      </c>
+      <c r="D24" s="6">
+        <v>35000</v>
+      </c>
+      <c r="E24" s="6">
+        <v>35000</v>
+      </c>
+      <c r="F24" s="6">
+        <v>35000</v>
+      </c>
+      <c r="G24" s="27">
+        <f t="shared" si="3"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="6">
+        <v>21644</v>
+      </c>
+      <c r="C25" s="6">
+        <v>200000</v>
+      </c>
+      <c r="D25" s="6">
+        <v>35000</v>
+      </c>
+      <c r="E25" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F25" s="6">
+        <f>25000-3137-5000</f>
+        <v>16863</v>
+      </c>
+      <c r="G25" s="27">
+        <f t="shared" si="3"/>
+        <v>293507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="6">
+        <v>4731</v>
+      </c>
+      <c r="C26" s="6">
+        <v>130000</v>
+      </c>
+      <c r="D26" s="6">
+        <v>60000</v>
+      </c>
+      <c r="E26" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F26" s="6">
+        <v>30000</v>
+      </c>
+      <c r="G26" s="27">
+        <f t="shared" si="3"/>
+        <v>254731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13">
+        <v>40000</v>
+      </c>
+      <c r="D27" s="13">
+        <v>20000</v>
+      </c>
+      <c r="E27" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F27" s="13">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="29">
+        <f t="shared" si="3"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13">
+        <v>25000</v>
+      </c>
+      <c r="D28" s="13">
+        <v>50000</v>
+      </c>
+      <c r="E28" s="13">
+        <v>25000</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="29">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13">
+        <v>60000</v>
+      </c>
+      <c r="D29" s="13">
+        <v>60000</v>
+      </c>
+      <c r="E29" s="13">
+        <v>60000</v>
+      </c>
+      <c r="F29" s="13">
+        <v>60000</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="3"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <f>14999*2</f>
+        <v>29998</v>
+      </c>
+      <c r="E30" s="13">
+        <f>14999*8</f>
+        <v>119992</v>
+      </c>
+      <c r="F30" s="13">
+        <f>14999*8</f>
+        <v>119992</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="3"/>
+        <v>269982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="31">
+        <f t="shared" ref="B31" si="4">SUM(B22:B30)</f>
+        <v>26375</v>
+      </c>
+      <c r="C31" s="31">
+        <f t="shared" ref="C31" si="5">SUM(C22:C30)</f>
+        <v>595468.72</v>
+      </c>
+      <c r="D31" s="31">
+        <f t="shared" ref="D31" si="6">SUM(D22:D30)</f>
+        <v>397576.0944</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" ref="E31" si="7">SUM(E22:E30)</f>
+        <v>409721.656288</v>
+      </c>
+      <c r="F31" s="31">
+        <f t="shared" ref="F31" si="8">SUM(F22:F30)</f>
+        <v>383779.24941376003</v>
+      </c>
+      <c r="G31" s="32">
+        <f t="shared" ref="G31" si="9">SUM(G22:G30)</f>
+        <v>1812920.72010176</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
